--- a/PrevCo2_x_tempo.xlsx
+++ b/PrevCo2_x_tempo.xlsx
@@ -487,13 +487,13 @@
         <v>429.0446711272284</v>
       </c>
       <c r="F2" t="n">
-        <v>434.177761314459</v>
+        <v>434.1777613144856</v>
       </c>
       <c r="G2" t="n">
-        <v>433.4298068204414</v>
+        <v>433.4298065813271</v>
       </c>
       <c r="H2" t="n">
-        <v>448.191674171183</v>
+        <v>448.1916760641179</v>
       </c>
     </row>
     <row r="3">
@@ -513,13 +513,13 @@
         <v>429.1836110222293</v>
       </c>
       <c r="F3" t="n">
-        <v>434.3447276227738</v>
+        <v>434.3447276228004</v>
       </c>
       <c r="G3" t="n">
-        <v>433.5929171093676</v>
+        <v>433.5929168701633</v>
       </c>
       <c r="H3" t="n">
-        <v>448.4253661175535</v>
+        <v>448.4253680198672</v>
       </c>
     </row>
     <row r="4">
@@ -539,13 +539,13 @@
         <v>429.3135288461253</v>
       </c>
       <c r="F4" t="n">
-        <v>434.5009100520049</v>
+        <v>434.5009100520315</v>
       </c>
       <c r="G4" t="n">
-        <v>433.7454852058425</v>
+        <v>433.745484966554</v>
       </c>
       <c r="H4" t="n">
-        <v>448.6440537629678</v>
+        <v>448.644055674049</v>
       </c>
     </row>
     <row r="5">
@@ -565,13 +565,13 @@
         <v>429.4524687411263</v>
       </c>
       <c r="F5" t="n">
-        <v>434.6680006295857</v>
+        <v>434.6680006296116</v>
       </c>
       <c r="G5" t="n">
-        <v>433.908701138406</v>
+        <v>433.9087008990275</v>
       </c>
       <c r="H5" t="n">
-        <v>448.8781103914807</v>
+        <v>448.8781123119843</v>
       </c>
     </row>
     <row r="6">
@@ -591,13 +591,13 @@
         <v>429.5869796194029</v>
       </c>
       <c r="F6" t="n">
-        <v>434.829826040997</v>
+        <v>434.8298260410236</v>
       </c>
       <c r="G6" t="n">
-        <v>434.0667662356383</v>
+        <v>434.0667659961725</v>
       </c>
       <c r="H6" t="n">
-        <v>449.1048854911351</v>
+        <v>449.1048874207554</v>
       </c>
     </row>
     <row r="7">
@@ -617,13 +617,13 @@
         <v>429.7259195144034</v>
       </c>
       <c r="F7" t="n">
-        <v>434.9970431056836</v>
+        <v>434.9970431057096</v>
       </c>
       <c r="G7" t="n">
-        <v>434.2300896780592</v>
+        <v>434.2300894385034</v>
       </c>
       <c r="H7" t="n">
-        <v>449.33931303188</v>
+        <v>449.3393149709518</v>
       </c>
     </row>
     <row r="8">
@@ -643,13 +643,13 @@
         <v>429.86043039268</v>
       </c>
       <c r="F8" t="n">
-        <v>435.1589910184852</v>
+        <v>435.1589910185111</v>
       </c>
       <c r="G8" t="n">
-        <v>434.3882588880416</v>
+        <v>434.3882586483985</v>
       </c>
       <c r="H8" t="n">
-        <v>449.5664472201097</v>
+        <v>449.5664491683419</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         <v>429.9993702876804</v>
       </c>
       <c r="F9" t="n">
-        <v>435.3263346660281</v>
+        <v>435.3263346660532</v>
       </c>
       <c r="G9" t="n">
-        <v>434.5516899023188</v>
+        <v>434.5516896625855</v>
       </c>
       <c r="H9" t="n">
-        <v>449.8012456730867</v>
+        <v>449.8012476308068</v>
       </c>
     </row>
     <row r="10">
@@ -695,13 +695,13 @@
         <v>430.1383101826809</v>
       </c>
       <c r="F10" t="n">
-        <v>435.4937426668225</v>
+        <v>435.4937426668477</v>
       </c>
       <c r="G10" t="n">
-        <v>434.7151755974448</v>
+        <v>434.7151753576214</v>
       </c>
       <c r="H10" t="n">
-        <v>450.0362325859678</v>
+        <v>450.0362345531757</v>
       </c>
     </row>
     <row r="11">
@@ -721,13 +721,13 @@
         <v>430.2726570233012</v>
       </c>
       <c r="F11" t="n">
-        <v>435.6556777394513</v>
+        <v>435.6556777394765</v>
       </c>
       <c r="G11" t="n">
-        <v>434.873308821127</v>
+        <v>434.8733085812162</v>
       </c>
       <c r="H11" t="n">
-        <v>450.2636305541964</v>
+        <v>450.2636325306157</v>
       </c>
     </row>
     <row r="12">
@@ -747,13 +747,13 @@
         <v>430.4115969183017</v>
       </c>
       <c r="F12" t="n">
-        <v>435.8232123915901</v>
+        <v>435.8232123916153</v>
       </c>
       <c r="G12" t="n">
-        <v>435.0369021170625</v>
+        <v>435.0369018770616</v>
       </c>
       <c r="H12" t="n">
-        <v>450.4989881567817</v>
+        <v>450.4989901427616</v>
       </c>
     </row>
     <row r="13">
@@ -773,13 +773,13 @@
         <v>430.5461077965783</v>
       </c>
       <c r="F13" t="n">
-        <v>435.9854678843938</v>
+        <v>435.9854678844191</v>
       </c>
       <c r="G13" t="n">
-        <v>435.1953326536911</v>
+        <v>435.1953324136027</v>
       </c>
       <c r="H13" t="n">
-        <v>450.7270227590852</v>
+        <v>450.7270247543056</v>
       </c>
     </row>
   </sheetData>

--- a/PrevCo2_x_tempo.xlsx
+++ b/PrevCo2_x_tempo.xlsx
@@ -493,7 +493,7 @@
         <v>433.4298065813271</v>
       </c>
       <c r="H2" t="n">
-        <v>448.1916760641179</v>
+        <v>203478277551.0474</v>
       </c>
     </row>
     <row r="3">
@@ -519,7 +519,7 @@
         <v>433.5929168701633</v>
       </c>
       <c r="H3" t="n">
-        <v>448.4253680198672</v>
+        <v>203495224085.8609</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>433.745484966554</v>
       </c>
       <c r="H4" t="n">
-        <v>448.644055674049</v>
+        <v>203511070834.7508</v>
       </c>
     </row>
     <row r="5">
@@ -571,7 +571,7 @@
         <v>433.9087008990275</v>
       </c>
       <c r="H5" t="n">
-        <v>448.8781123119843</v>
+        <v>203528018735.0628</v>
       </c>
     </row>
     <row r="6">
@@ -597,7 +597,7 @@
         <v>434.0667659961725</v>
       </c>
       <c r="H6" t="n">
-        <v>449.1048874207554</v>
+        <v>203544427055.812</v>
       </c>
     </row>
     <row r="7">
@@ -623,7 +623,7 @@
         <v>434.2300894385034</v>
       </c>
       <c r="H7" t="n">
-        <v>449.3393149709518</v>
+        <v>203561376344.9502</v>
       </c>
     </row>
     <row r="8">
@@ -649,7 +649,7 @@
         <v>434.3882586483985</v>
       </c>
       <c r="H8" t="n">
-        <v>449.5664491683419</v>
+        <v>203577786010.2536</v>
       </c>
     </row>
     <row r="9">
@@ -675,7 +675,7 @@
         <v>434.5516896625855</v>
       </c>
       <c r="H9" t="n">
-        <v>449.8012476308068</v>
+        <v>203594736688.2178</v>
       </c>
     </row>
     <row r="10">
@@ -701,7 +701,7 @@
         <v>434.7151753576214</v>
       </c>
       <c r="H10" t="n">
-        <v>450.0362345531757</v>
+        <v>203611688071.8423</v>
       </c>
     </row>
     <row r="11">
@@ -727,7 +727,7 @@
         <v>434.8733085812162</v>
       </c>
       <c r="H11" t="n">
-        <v>450.2636325306157</v>
+        <v>203628079750.2032</v>
       </c>
     </row>
     <row r="12">
@@ -753,7 +753,7 @@
         <v>435.0369018770616</v>
       </c>
       <c r="H12" t="n">
-        <v>450.4989901427616</v>
+        <v>203645032521.8207</v>
       </c>
     </row>
     <row r="13">
@@ -779,7 +779,7 @@
         <v>435.1953324136027</v>
       </c>
       <c r="H13" t="n">
-        <v>450.7270247543056</v>
+        <v>203661445558.5918</v>
       </c>
     </row>
   </sheetData>

--- a/PrevCo2_x_tempo.xlsx
+++ b/PrevCo2_x_tempo.xlsx
@@ -487,13 +487,13 @@
         <v>429.0446711272284</v>
       </c>
       <c r="F2" t="n">
-        <v>434.1777613144856</v>
+        <v>434.177761314459</v>
       </c>
       <c r="G2" t="n">
-        <v>433.4298065813271</v>
+        <v>433.4298068204414</v>
       </c>
       <c r="H2" t="n">
-        <v>448.1916760641179</v>
+        <v>448.191674171183</v>
       </c>
     </row>
     <row r="3">
@@ -513,13 +513,13 @@
         <v>429.1836110222293</v>
       </c>
       <c r="F3" t="n">
-        <v>434.3447276228004</v>
+        <v>434.3447276227738</v>
       </c>
       <c r="G3" t="n">
-        <v>433.5929168701633</v>
+        <v>433.5929171093676</v>
       </c>
       <c r="H3" t="n">
-        <v>448.4253680198672</v>
+        <v>448.4253661175535</v>
       </c>
     </row>
     <row r="4">
@@ -539,13 +539,13 @@
         <v>429.3135288461253</v>
       </c>
       <c r="F4" t="n">
-        <v>434.5009100520315</v>
+        <v>434.5009100520049</v>
       </c>
       <c r="G4" t="n">
-        <v>433.745484966554</v>
+        <v>433.7454852058425</v>
       </c>
       <c r="H4" t="n">
-        <v>448.644055674049</v>
+        <v>448.6440537629678</v>
       </c>
     </row>
     <row r="5">
@@ -565,13 +565,13 @@
         <v>429.4524687411263</v>
       </c>
       <c r="F5" t="n">
-        <v>434.6680006296116</v>
+        <v>434.6680006295857</v>
       </c>
       <c r="G5" t="n">
-        <v>433.9087008990275</v>
+        <v>433.908701138406</v>
       </c>
       <c r="H5" t="n">
-        <v>448.8781123119843</v>
+        <v>448.8781103914807</v>
       </c>
     </row>
     <row r="6">
@@ -591,13 +591,13 @@
         <v>429.5869796194029</v>
       </c>
       <c r="F6" t="n">
-        <v>434.8298260410236</v>
+        <v>434.829826040997</v>
       </c>
       <c r="G6" t="n">
-        <v>434.0667659961725</v>
+        <v>434.0667662356383</v>
       </c>
       <c r="H6" t="n">
-        <v>449.1048874207554</v>
+        <v>449.1048854911351</v>
       </c>
     </row>
     <row r="7">
@@ -617,13 +617,13 @@
         <v>429.7259195144034</v>
       </c>
       <c r="F7" t="n">
-        <v>434.9970431057096</v>
+        <v>434.9970431056836</v>
       </c>
       <c r="G7" t="n">
-        <v>434.2300894385034</v>
+        <v>434.2300896780592</v>
       </c>
       <c r="H7" t="n">
-        <v>449.3393149709518</v>
+        <v>449.33931303188</v>
       </c>
     </row>
     <row r="8">
@@ -643,13 +643,13 @@
         <v>429.86043039268</v>
       </c>
       <c r="F8" t="n">
-        <v>435.1589910185111</v>
+        <v>435.1589910184852</v>
       </c>
       <c r="G8" t="n">
-        <v>434.3882586483985</v>
+        <v>434.3882588880416</v>
       </c>
       <c r="H8" t="n">
-        <v>449.5664491683419</v>
+        <v>449.5664472201097</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         <v>429.9993702876804</v>
       </c>
       <c r="F9" t="n">
-        <v>435.3263346660532</v>
+        <v>435.3263346660281</v>
       </c>
       <c r="G9" t="n">
-        <v>434.5516896625855</v>
+        <v>434.5516899023188</v>
       </c>
       <c r="H9" t="n">
-        <v>449.8012476308068</v>
+        <v>449.8012456730867</v>
       </c>
     </row>
     <row r="10">
@@ -695,13 +695,13 @@
         <v>430.1383101826809</v>
       </c>
       <c r="F10" t="n">
-        <v>435.4937426668477</v>
+        <v>435.4937426668225</v>
       </c>
       <c r="G10" t="n">
-        <v>434.7151753576214</v>
+        <v>434.7151755974448</v>
       </c>
       <c r="H10" t="n">
-        <v>450.0362345531757</v>
+        <v>450.0362325859678</v>
       </c>
     </row>
     <row r="11">
@@ -721,13 +721,13 @@
         <v>430.2726570233012</v>
       </c>
       <c r="F11" t="n">
-        <v>435.6556777394765</v>
+        <v>435.6556777394513</v>
       </c>
       <c r="G11" t="n">
-        <v>434.8733085812162</v>
+        <v>434.873308821127</v>
       </c>
       <c r="H11" t="n">
-        <v>450.2636325306157</v>
+        <v>450.2636305541964</v>
       </c>
     </row>
     <row r="12">
@@ -747,13 +747,13 @@
         <v>430.4115969183017</v>
       </c>
       <c r="F12" t="n">
-        <v>435.8232123916153</v>
+        <v>435.8232123915901</v>
       </c>
       <c r="G12" t="n">
-        <v>435.0369018770616</v>
+        <v>435.0369021170625</v>
       </c>
       <c r="H12" t="n">
-        <v>450.4989901427616</v>
+        <v>450.4989881567817</v>
       </c>
     </row>
     <row r="13">
@@ -773,13 +773,13 @@
         <v>430.5461077965783</v>
       </c>
       <c r="F13" t="n">
-        <v>435.9854678844191</v>
+        <v>435.9854678843938</v>
       </c>
       <c r="G13" t="n">
-        <v>435.1953324136027</v>
+        <v>435.1953326536911</v>
       </c>
       <c r="H13" t="n">
-        <v>450.7270247543056</v>
+        <v>450.7270227590852</v>
       </c>
     </row>
   </sheetData>
